--- a/Fundraising Trends/Lifetime Fundraising and Riding Stats by Year.xlsx
+++ b/Fundraising Trends/Lifetime Fundraising and Riding Stats by Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy\Documents\GitHub\PMC\Fundraising Trends\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyrodriguez/Desktop/PMC Github/Fundraising Trends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD0284B-91C9-40B4-BFB7-2951881B436F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6C231E-5F6A-9F4C-BAAA-2B8FC2C5BDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34896" yWindow="324" windowWidth="19140" windowHeight="16536" firstSheet="3" activeTab="5" xr2:uid="{78DC97BA-FC94-4645-820C-CCD26561DD59}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{78DC97BA-FC94-4645-820C-CCD26561DD59}"/>
   </bookViews>
   <sheets>
     <sheet name="Fundraising Stats by Year" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="8">
   <si>
     <t>EventYear</t>
   </si>
@@ -71,8 +71,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -179,7 +180,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -226,14 +227,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -634,21 +638,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EBC361-E6E6-487E-8E4B-52043F3C0EA0}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -668,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1980</v>
       </c>
@@ -688,7 +692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1981</v>
       </c>
@@ -709,7 +713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1982</v>
       </c>
@@ -730,7 +734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1983</v>
       </c>
@@ -751,7 +755,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1984</v>
       </c>
@@ -772,7 +776,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1985</v>
       </c>
@@ -793,7 +797,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>1986</v>
       </c>
@@ -814,7 +818,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>1987</v>
       </c>
@@ -835,7 +839,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>1988</v>
       </c>
@@ -856,7 +860,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>1989</v>
       </c>
@@ -877,7 +881,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>1990</v>
       </c>
@@ -899,7 +903,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>1991</v>
       </c>
@@ -921,7 +925,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>1992</v>
       </c>
@@ -943,7 +947,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>1993</v>
       </c>
@@ -965,7 +969,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>1994</v>
       </c>
@@ -987,7 +991,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>1995</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>1996</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>1997</v>
       </c>
@@ -1053,7 +1057,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>1998</v>
       </c>
@@ -1075,7 +1079,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>1999</v>
       </c>
@@ -1097,7 +1101,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>2000</v>
       </c>
@@ -1119,7 +1123,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>2001</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>2002</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>2003</v>
       </c>
@@ -1185,7 +1189,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>2004</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>2005</v>
       </c>
@@ -1229,7 +1233,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>2006</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>4611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>2007</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>2008</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>5838</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>2009</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>5510</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>2010</v>
       </c>
@@ -1339,7 +1343,7 @@
         <v>5664</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>2011</v>
       </c>
@@ -1361,7 +1365,7 @@
         <v>5856</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>2012</v>
       </c>
@@ -1383,7 +1387,7 @@
         <v>6397</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>2013</v>
       </c>
@@ -1405,7 +1409,7 @@
         <v>6986</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>2014</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>7256</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>2015</v>
       </c>
@@ -1449,7 +1453,7 @@
         <v>7774</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>2016</v>
       </c>
@@ -1471,7 +1475,7 @@
         <v>8580</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>2017</v>
       </c>
@@ -1493,7 +1497,7 @@
         <v>8213</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>2018</v>
       </c>
@@ -1515,7 +1519,7 @@
         <v>7785</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>2019</v>
       </c>
@@ -1537,7 +1541,7 @@
         <v>8209</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>2020</v>
       </c>
@@ -1559,7 +1563,7 @@
         <v>9343</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>2021</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>7270</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>2022</v>
       </c>
@@ -1603,7 +1607,7 @@
         <v>7553</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>2023</v>
       </c>
@@ -1632,7 +1636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E45">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1645,19 +1649,19 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.44140625" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="41.5" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1980</v>
       </c>
@@ -1697,7 +1701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1981</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1982</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1983</v>
       </c>
@@ -1760,7 +1764,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1984</v>
       </c>
@@ -1781,7 +1785,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1985</v>
       </c>
@@ -1802,7 +1806,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1986</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1987</v>
       </c>
@@ -1844,7 +1848,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1988</v>
       </c>
@@ -1865,7 +1869,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>1989</v>
       </c>
@@ -1886,7 +1890,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1990</v>
       </c>
@@ -1908,7 +1912,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1991</v>
       </c>
@@ -1930,7 +1934,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1992</v>
       </c>
@@ -1952,7 +1956,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>1993</v>
       </c>
@@ -1974,7 +1978,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>1994</v>
       </c>
@@ -1996,7 +2000,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1995</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>1996</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>1997</v>
       </c>
@@ -2062,7 +2066,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>1998</v>
       </c>
@@ -2084,7 +2088,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>1999</v>
       </c>
@@ -2106,7 +2110,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2000</v>
       </c>
@@ -2128,7 +2132,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>2001</v>
       </c>
@@ -2150,7 +2154,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>2002</v>
       </c>
@@ -2172,7 +2176,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>2003</v>
       </c>
@@ -2194,7 +2198,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>2004</v>
       </c>
@@ -2216,7 +2220,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>2005</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>2006</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>4611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>2007</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>2008</v>
       </c>
@@ -2304,7 +2308,7 @@
         <v>5838</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>2009</v>
       </c>
@@ -2326,7 +2330,7 @@
         <v>5510</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>2010</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>5664</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>2011</v>
       </c>
@@ -2370,7 +2374,7 @@
         <v>5856</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>2012</v>
       </c>
@@ -2392,7 +2396,7 @@
         <v>6397</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>2013</v>
       </c>
@@ -2414,7 +2418,7 @@
         <v>6986</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>2014</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>7256</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>2015</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>7774</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>2016</v>
       </c>
@@ -2480,7 +2484,7 @@
         <v>8580</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>2017</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>8213</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>2018</v>
       </c>
@@ -2524,7 +2528,7 @@
         <v>7785</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>2019</v>
       </c>
@@ -2546,7 +2550,7 @@
         <v>8209</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>2020</v>
       </c>
@@ -2568,7 +2572,7 @@
         <v>9343</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>2021</v>
       </c>
@@ -2590,7 +2594,7 @@
         <v>7270</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>2022</v>
       </c>
@@ -2612,7 +2616,7 @@
         <v>7553</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>2023</v>
       </c>
@@ -2636,12 +2640,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2653,21 +2657,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322575E7-DE50-49AC-9C7A-09E489D6EF82}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="32.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="32.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2687,15 +2691,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1980</v>
       </c>
       <c r="B2" s="13">
         <v>316.66669999999999</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>5</v>
+      <c r="C2" s="14" t="e">
+        <f t="shared" ref="C2:C10" si="0">((B2-B1)/B2)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D2" s="13">
         <v>0</v>
@@ -2707,15 +2712,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1981</v>
       </c>
       <c r="B3" s="13">
         <v>670.27269999999999</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>5</v>
+      <c r="C3" s="14">
+        <f t="shared" si="0"/>
+        <v>0.52755542632125696</v>
       </c>
       <c r="D3" s="13">
         <v>0</v>
@@ -2727,15 +2733,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1982</v>
       </c>
       <c r="B4" s="13">
         <v>738.43499999999995</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>5</v>
+      <c r="C4" s="14">
+        <f t="shared" si="0"/>
+        <v>9.2306431845727746E-2</v>
       </c>
       <c r="D4" s="13">
         <v>0</v>
@@ -2747,15 +2754,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>1983</v>
       </c>
       <c r="B5" s="13">
         <v>760.55309999999997</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>5</v>
+      <c r="C5" s="14">
+        <f t="shared" si="0"/>
+        <v>2.9081598641830568E-2</v>
       </c>
       <c r="D5" s="13">
         <v>0</v>
@@ -2767,15 +2775,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>1984</v>
       </c>
       <c r="B6" s="13">
         <v>768.65660000000003</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>5</v>
+      <c r="C6" s="14">
+        <f t="shared" si="0"/>
+        <v>1.0542419072444123E-2</v>
       </c>
       <c r="D6" s="13">
         <v>0</v>
@@ -2787,15 +2796,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>1985</v>
       </c>
       <c r="B7" s="13">
         <v>761.67830000000004</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>5</v>
+      <c r="C7" s="14">
+        <f t="shared" si="0"/>
+        <v>-9.1617419059988846E-3</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -2807,15 +2817,16 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>1986</v>
       </c>
       <c r="B8" s="13">
         <v>697.50819999999999</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>5</v>
+      <c r="C8" s="14">
+        <f t="shared" si="0"/>
+        <v>-9.1999061803144461E-2</v>
       </c>
       <c r="D8" s="13">
         <v>0</v>
@@ -2827,15 +2838,16 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>1987</v>
       </c>
       <c r="B9" s="13">
         <v>598.13499999999999</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>5</v>
+      <c r="C9" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.16613841356884315</v>
       </c>
       <c r="D9" s="13">
         <v>0</v>
@@ -2847,15 +2859,16 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>1988</v>
       </c>
       <c r="B10" s="13">
         <v>775.65769999999998</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>5</v>
+      <c r="C10" s="14">
+        <f t="shared" si="0"/>
+        <v>0.22886732124234696</v>
       </c>
       <c r="D10" s="13">
         <v>0</v>
@@ -2867,7 +2880,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1989</v>
       </c>
@@ -2875,21 +2888,21 @@
         <v>2116.5182</v>
       </c>
       <c r="C11" s="14">
-        <f t="shared" ref="C11:E45" si="0">((B11-B10)/B11)</f>
+        <f t="shared" ref="C11:E45" si="1">((B11-B10)/B11)</f>
         <v>0.63352183789395244</v>
       </c>
       <c r="D11" s="13">
         <v>884.5</v>
       </c>
       <c r="E11" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F11" s="13">
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>1990</v>
       </c>
@@ -2897,21 +2910,21 @@
         <v>3327.4162999999999</v>
       </c>
       <c r="C12" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3639154199010205</v>
       </c>
       <c r="D12" s="13">
         <v>1674</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47162485065710874</v>
       </c>
       <c r="F12" s="13">
         <v>1016</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>1991</v>
       </c>
@@ -2919,21 +2932,21 @@
         <v>4209.5442000000003</v>
       </c>
       <c r="C13" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20955425530393537</v>
       </c>
       <c r="D13" s="13">
         <v>2350</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2876595744680851</v>
       </c>
       <c r="F13" s="13">
         <v>1229</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>1992</v>
       </c>
@@ -2941,21 +2954,21 @@
         <v>5008.2277000000004</v>
       </c>
       <c r="C14" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15947427869543551</v>
       </c>
       <c r="D14" s="13">
         <v>2636</v>
       </c>
       <c r="E14" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10849772382397573</v>
       </c>
       <c r="F14" s="13">
         <v>1505</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>1993</v>
       </c>
@@ -2963,21 +2976,21 @@
         <v>6115.9274999999998</v>
       </c>
       <c r="C15" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18111722220382753</v>
       </c>
       <c r="D15" s="13">
         <v>3145.165</v>
       </c>
       <c r="E15" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16188816802934025</v>
       </c>
       <c r="F15" s="13">
         <v>1426</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>1994</v>
       </c>
@@ -2985,21 +2998,21 @@
         <v>7397.9831999999997</v>
       </c>
       <c r="C16" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17329800100113771</v>
       </c>
       <c r="D16" s="13">
         <v>3622</v>
       </c>
       <c r="E16" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.131649641082275</v>
       </c>
       <c r="F16" s="13">
         <v>1595</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>1995</v>
       </c>
@@ -3007,21 +3020,21 @@
         <v>8281.4914000000008</v>
       </c>
       <c r="C17" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10668467276316933</v>
       </c>
       <c r="D17" s="13">
         <v>3975</v>
       </c>
       <c r="E17" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.880503144654088E-2</v>
       </c>
       <c r="F17" s="13">
         <v>1856</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>1996</v>
       </c>
@@ -3029,21 +3042,21 @@
         <v>9606.7868999999992</v>
       </c>
       <c r="C18" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13795408535605161</v>
       </c>
       <c r="D18" s="13">
         <v>4696.5</v>
       </c>
       <c r="E18" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15362503992334717</v>
       </c>
       <c r="F18" s="13">
         <v>1974</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>1997</v>
       </c>
@@ -3051,21 +3064,21 @@
         <v>11129.407499999999</v>
       </c>
       <c r="C19" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13681057145225389</v>
       </c>
       <c r="D19" s="13">
         <v>5461.4</v>
       </c>
       <c r="E19" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14005566338301528</v>
       </c>
       <c r="F19" s="13">
         <v>1959</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>1998</v>
       </c>
@@ -3073,21 +3086,21 @@
         <v>12510.302100000001</v>
       </c>
       <c r="C20" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11038059584508365</v>
       </c>
       <c r="D20" s="13">
         <v>5615</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7355298308103359E-2</v>
       </c>
       <c r="F20" s="13">
         <v>2275</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>1999</v>
       </c>
@@ -3095,21 +3108,21 @@
         <v>13573.162700000001</v>
       </c>
       <c r="C21" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8306038429790573E-2</v>
       </c>
       <c r="D21" s="13">
         <v>6440.2</v>
       </c>
       <c r="E21" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12813266668736994</v>
       </c>
       <c r="F21" s="13">
         <v>2519</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>2000</v>
       </c>
@@ -3117,21 +3130,21 @@
         <v>16970.1021</v>
       </c>
       <c r="C22" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20017200721497128</v>
       </c>
       <c r="D22" s="13">
         <v>7751</v>
       </c>
       <c r="E22" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16911366275319317</v>
       </c>
       <c r="F22" s="13">
         <v>2902</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>2001</v>
       </c>
@@ -3139,21 +3152,21 @@
         <v>19995.4948</v>
       </c>
       <c r="C23" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15130371767544359</v>
       </c>
       <c r="D23" s="13">
         <v>9294</v>
       </c>
       <c r="E23" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16602108887454273</v>
       </c>
       <c r="F23" s="13">
         <v>3114</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>2002</v>
       </c>
@@ -3161,21 +3174,21 @@
         <v>21154.992300000002</v>
       </c>
       <c r="C24" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4809639424921994E-2</v>
       </c>
       <c r="D24" s="13">
         <v>9822</v>
       </c>
       <c r="E24" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3756872327428221E-2</v>
       </c>
       <c r="F24" s="13">
         <v>3485</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>2003</v>
       </c>
@@ -3183,21 +3196,21 @@
         <v>23097.681199999999</v>
       </c>
       <c r="C25" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4107529373987439E-2</v>
       </c>
       <c r="D25" s="13">
         <v>10994.83</v>
       </c>
       <c r="E25" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10667104448181554</v>
       </c>
       <c r="F25" s="13">
         <v>3690</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>2004</v>
       </c>
@@ -3205,21 +3218,21 @@
         <v>25512.866300000002</v>
       </c>
       <c r="C26" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4665376739735518E-2</v>
       </c>
       <c r="D26" s="13">
         <v>12144</v>
       </c>
       <c r="E26" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.46286231884058E-2</v>
       </c>
       <c r="F26" s="13">
         <v>3966</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>2005</v>
       </c>
@@ -3227,21 +3240,21 @@
         <v>28826.955999999998</v>
       </c>
       <c r="C27" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11496495502334679</v>
       </c>
       <c r="D27" s="13">
         <v>14083.85</v>
       </c>
       <c r="E27" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1377357753739212</v>
       </c>
       <c r="F27" s="13">
         <v>4091</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>2006</v>
       </c>
@@ -3249,21 +3262,21 @@
         <v>30308.926599999999</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8895515818102267E-2</v>
       </c>
       <c r="D28" s="13">
         <v>15069</v>
       </c>
       <c r="E28" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5375937354834407E-2</v>
       </c>
       <c r="F28" s="13">
         <v>4611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>2007</v>
       </c>
@@ -3271,21 +3284,21 @@
         <v>31854.631700000002</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8523715940498625E-2</v>
       </c>
       <c r="D29" s="13">
         <v>16273</v>
       </c>
       <c r="E29" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3987586800221231E-2</v>
       </c>
       <c r="F29" s="13">
         <v>5345</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>2008</v>
       </c>
@@ -3293,21 +3306,21 @@
         <v>34146.513299999999</v>
       </c>
       <c r="C30" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7119051947245142E-2</v>
       </c>
       <c r="D30" s="13">
         <v>17310</v>
       </c>
       <c r="E30" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9907567879838246E-2</v>
       </c>
       <c r="F30" s="13">
         <v>5838</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>2009</v>
       </c>
@@ -3315,21 +3328,21 @@
         <v>37290.482900000003</v>
       </c>
       <c r="C31" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4310240991810906E-2</v>
       </c>
       <c r="D31" s="13">
         <v>18232.88</v>
       </c>
       <c r="E31" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0616249325394616E-2</v>
       </c>
       <c r="F31" s="13">
         <v>5510</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>2010</v>
       </c>
@@ -3337,21 +3350,21 @@
         <v>39001.607900000003</v>
       </c>
       <c r="C32" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3873191187074105E-2</v>
       </c>
       <c r="D32" s="13">
         <v>18914.75</v>
       </c>
       <c r="E32" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6049643796507963E-2</v>
       </c>
       <c r="F32" s="13">
         <v>5664</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>2011</v>
       </c>
@@ -3359,21 +3372,21 @@
         <v>40930.017899999999</v>
       </c>
       <c r="C33" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7114809593083423E-2</v>
       </c>
       <c r="D33" s="13">
         <v>20276.5</v>
       </c>
       <c r="E33" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7159026459201535E-2</v>
       </c>
       <c r="F33" s="13">
         <v>5856</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>2012</v>
       </c>
@@ -3381,21 +3394,21 @@
         <v>42000.799599999998</v>
       </c>
       <c r="C34" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5494317017716959E-2</v>
       </c>
       <c r="D34" s="13">
         <v>20552.5</v>
       </c>
       <c r="E34" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3429023233183311E-2</v>
       </c>
       <c r="F34" s="13">
         <v>6397</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>2013</v>
       </c>
@@ -3403,21 +3416,21 @@
         <v>43290.430200000003</v>
       </c>
       <c r="C35" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9790200606507347E-2</v>
       </c>
       <c r="D35" s="13">
         <v>21185</v>
       </c>
       <c r="E35" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9856030210054285E-2</v>
       </c>
       <c r="F35" s="13">
         <v>6986</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>2014</v>
       </c>
@@ -3425,21 +3438,21 @@
         <v>45560.784899999999</v>
       </c>
       <c r="C36" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9831334227079929E-2</v>
       </c>
       <c r="D36" s="13">
         <v>21983.3</v>
       </c>
       <c r="E36" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.631392920990021E-2</v>
       </c>
       <c r="F36" s="13">
         <v>7256</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>2015</v>
       </c>
@@ -3447,21 +3460,21 @@
         <v>47690.802300000003</v>
       </c>
       <c r="C37" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4663064936527691E-2</v>
       </c>
       <c r="D37" s="13">
         <v>22788.62</v>
       </c>
       <c r="E37" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5338690978216312E-2</v>
       </c>
       <c r="F37" s="13">
         <v>7774</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>2016</v>
       </c>
@@ -3469,21 +3482,21 @@
         <v>49146.113700000002</v>
       </c>
       <c r="C38" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9611932469036685E-2</v>
       </c>
       <c r="D38" s="13">
         <v>23396</v>
       </c>
       <c r="E38" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5960848008206576E-2</v>
       </c>
       <c r="F38" s="13">
         <v>8580</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>2017</v>
       </c>
@@ -3491,21 +3504,21 @@
         <v>53085.550900000002</v>
       </c>
       <c r="C39" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4209217634774519E-2</v>
       </c>
       <c r="D39" s="13">
         <v>24635.5</v>
       </c>
       <c r="E39" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.031357187798096E-2</v>
       </c>
       <c r="F39" s="13">
         <v>8213</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>2018</v>
       </c>
@@ -3513,21 +3526,21 @@
         <v>57868.326800000003</v>
       </c>
       <c r="C40" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2649286137645855E-2</v>
       </c>
       <c r="D40" s="13">
         <v>26748.86</v>
       </c>
       <c r="E40" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.900747919724431E-2</v>
       </c>
       <c r="F40" s="13">
         <v>7785</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>2019</v>
       </c>
@@ -3535,21 +3548,21 @@
         <v>62272.5789</v>
       </c>
       <c r="C41" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0725384716642886E-2</v>
       </c>
       <c r="D41" s="13">
         <v>28404.93</v>
       </c>
       <c r="E41" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8302203173885646E-2</v>
       </c>
       <c r="F41" s="13">
         <v>8209</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>2020</v>
       </c>
@@ -3557,21 +3570,21 @@
         <v>65514.0962</v>
       </c>
       <c r="C42" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9478165585988797E-2</v>
       </c>
       <c r="D42" s="13">
         <v>27878.080000000002</v>
       </c>
       <c r="E42" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.8898360288800323E-2</v>
       </c>
       <c r="F42" s="13">
         <v>9343</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>2021</v>
       </c>
@@ -3579,21 +3592,21 @@
         <v>75020.34</v>
       </c>
       <c r="C43" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12671555207561039</v>
       </c>
       <c r="D43" s="13">
         <v>32974.839999999997</v>
       </c>
       <c r="E43" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15456511691944511</v>
       </c>
       <c r="F43" s="13">
         <v>7270</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>2022</v>
       </c>
@@ -3601,21 +3614,21 @@
         <v>84607.571599999996</v>
       </c>
       <c r="C44" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11331410911219203</v>
       </c>
       <c r="D44" s="13">
         <v>39015</v>
       </c>
       <c r="E44" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15481635268486488</v>
       </c>
       <c r="F44" s="13">
         <v>7553</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>2023</v>
       </c>
@@ -3623,38 +3636,38 @@
         <v>92707.711200000005</v>
       </c>
       <c r="C45" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7372878643562163E-2</v>
       </c>
       <c r="D45" s="13">
         <v>46831.9</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16691400519731212</v>
       </c>
       <c r="F45" s="13">
         <v>7637</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F49"/>
     </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.2">
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C45 E1:E45">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="E1:E45 C1:C45">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3667,19 +3680,19 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3699,7 +3712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1980</v>
       </c>
@@ -3711,7 +3724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1981</v>
       </c>
@@ -3731,7 +3744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1982</v>
       </c>
@@ -3746,14 +3759,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="11">
-        <f>((D4-D3)/D3)</f>
+        <f t="shared" ref="E4:E45" si="0">((D4-D3)/D3)</f>
         <v>0</v>
       </c>
       <c r="F4" s="13">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1983</v>
       </c>
@@ -3761,21 +3774,21 @@
         <v>1.7179489999999999</v>
       </c>
       <c r="C5" s="11">
-        <f t="shared" ref="C5:C45" si="0">((B5-B4)/B4)</f>
+        <f t="shared" ref="C5:C45" si="1">((B5-B4)/B4)</f>
         <v>0.22710642857142863</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
       <c r="E5" s="11">
-        <f>((D5-D4)/D4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5" s="13">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1984</v>
       </c>
@@ -3783,21 +3796,21 @@
         <v>2.0655739999999998</v>
       </c>
       <c r="C6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2023488473755623</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="11">
-        <f>((D6-D5)/D5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="13">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1985</v>
       </c>
@@ -3805,21 +3818,21 @@
         <v>2.2872340000000002</v>
       </c>
       <c r="C7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10731157537807913</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
       <c r="E7" s="11">
-        <f>((D7-D6)/D6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="13">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1986</v>
       </c>
@@ -3827,21 +3840,21 @@
         <v>2.4133330000000002</v>
       </c>
       <c r="C8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5131656839658712E-2</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
       </c>
       <c r="E8" s="11">
-        <f>((D8-D7)/D7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1987</v>
       </c>
@@ -3849,21 +3862,21 @@
         <v>2.4696359999999999</v>
       </c>
       <c r="C9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3329975598062831E-2</v>
       </c>
       <c r="D9" s="8">
         <v>2</v>
       </c>
       <c r="E9" s="11">
-        <f>((D9-D8)/D8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="13">
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1988</v>
       </c>
@@ -3871,21 +3884,21 @@
         <v>2.393443</v>
       </c>
       <c r="C10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.0851915019055421E-2</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
       </c>
       <c r="E10" s="11">
-        <f>((D10-D9)/D9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="13">
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>1989</v>
       </c>
@@ -3893,21 +3906,21 @@
         <v>3.2538860000000001</v>
       </c>
       <c r="C11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35950010090066908</v>
       </c>
       <c r="D11" s="8">
         <v>3</v>
       </c>
       <c r="E11" s="11">
-        <f>((D11-D10)/D10)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F11" s="13">
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1990</v>
       </c>
@@ -3915,21 +3928,21 @@
         <v>2.6729780000000001</v>
       </c>
       <c r="C12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.17852745916728488</v>
       </c>
       <c r="D12" s="8">
         <v>2</v>
       </c>
       <c r="E12" s="11">
-        <f>((D12-D11)/D11)</f>
+        <f t="shared" si="0"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="F12" s="13">
         <v>1016</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1991</v>
       </c>
@@ -3937,21 +3950,21 @@
         <v>2.9360729999999999</v>
       </c>
       <c r="C13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8427671308929529E-2</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
       </c>
       <c r="E13" s="11">
-        <f>((D13-D12)/D12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="13">
         <v>1229</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1992</v>
       </c>
@@ -3959,21 +3972,21 @@
         <v>2.89554</v>
       </c>
       <c r="C14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3805174462624033E-2</v>
       </c>
       <c r="D14" s="8">
         <v>2</v>
       </c>
       <c r="E14" s="11">
-        <f>((D14-D13)/D13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="13">
         <v>1505</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>1993</v>
       </c>
@@ -3981,21 +3994,21 @@
         <v>3.0506859999999998</v>
       </c>
       <c r="C15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3581024610262602E-2</v>
       </c>
       <c r="D15" s="8">
         <v>2</v>
       </c>
       <c r="E15" s="11">
-        <f>((D15-D14)/D14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="13">
         <v>1426</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>1994</v>
       </c>
@@ -4003,21 +4016,21 @@
         <v>3.355823</v>
       </c>
       <c r="C16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1000224211865791</v>
       </c>
       <c r="D16" s="8">
         <v>2</v>
       </c>
       <c r="E16" s="11">
-        <f>((D16-D15)/D15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="13">
         <v>1595</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1995</v>
       </c>
@@ -4025,21 +4038,21 @@
         <v>3.520581</v>
       </c>
       <c r="C17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9096153164216338E-2</v>
       </c>
       <c r="D17" s="8">
         <v>3</v>
       </c>
       <c r="E17" s="11">
-        <f>((D17-D16)/D16)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F17" s="13">
         <v>1856</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>1996</v>
       </c>
@@ -4047,21 +4060,21 @@
         <v>3.641813</v>
       </c>
       <c r="C18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4435225322184036E-2</v>
       </c>
       <c r="D18" s="8">
         <v>3</v>
       </c>
       <c r="E18" s="11">
-        <f>((D18-D17)/D17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="13">
         <v>1974</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>1997</v>
       </c>
@@ -4069,21 +4082,21 @@
         <v>3.9091559999999999</v>
       </c>
       <c r="C19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3409315634822517E-2</v>
       </c>
       <c r="D19" s="8">
         <v>3</v>
       </c>
       <c r="E19" s="11">
-        <f>((D19-D18)/D18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="13">
         <v>1959</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>1998</v>
       </c>
@@ -4091,21 +4104,21 @@
         <v>4.1256680000000001</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5385868458562477E-2</v>
       </c>
       <c r="D20" s="8">
         <v>3</v>
       </c>
       <c r="E20" s="11">
-        <f>((D20-D19)/D19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="13">
         <v>2275</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>1999</v>
       </c>
@@ -4113,21 +4126,21 @@
         <v>4.1454440000000004</v>
       </c>
       <c r="C21" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7934055769878322E-3</v>
       </c>
       <c r="D21" s="8">
         <v>3</v>
       </c>
       <c r="E21" s="11">
-        <f>((D21-D20)/D20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="13">
         <v>2519</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2000</v>
       </c>
@@ -4135,21 +4148,21 @@
         <v>4.1768669999999997</v>
       </c>
       <c r="C22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5801289319067655E-3</v>
       </c>
       <c r="D22" s="8">
         <v>3</v>
       </c>
       <c r="E22" s="11">
-        <f>((D22-D21)/D21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="13">
         <v>2902</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>2001</v>
       </c>
@@ -4157,21 +4170,21 @@
         <v>4.311852</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2317284701667628E-2</v>
       </c>
       <c r="D23" s="8">
         <v>3</v>
       </c>
       <c r="E23" s="11">
-        <f>((D23-D22)/D22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="13">
         <v>3114</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>2002</v>
       </c>
@@ -4179,21 +4192,21 @@
         <v>4.4991649999999996</v>
       </c>
       <c r="C24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3441426097185064E-2</v>
       </c>
       <c r="D24" s="8">
         <v>3</v>
       </c>
       <c r="E24" s="11">
-        <f>((D24-D23)/D23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24" s="13">
         <v>3485</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>2003</v>
       </c>
@@ -4201,21 +4214,21 @@
         <v>4.5028790000000001</v>
       </c>
       <c r="C25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2548650694082998E-4</v>
       </c>
       <c r="D25" s="8">
         <v>3</v>
       </c>
       <c r="E25" s="11">
-        <f>((D25-D24)/D24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="13">
         <v>3690</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>2004</v>
       </c>
@@ -4223,21 +4236,21 @@
         <v>4.6558299999999999</v>
       </c>
       <c r="C26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3967379536514269E-2</v>
       </c>
       <c r="D26" s="8">
         <v>3</v>
       </c>
       <c r="E26" s="11">
-        <f>((D26-D25)/D25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26" s="13">
         <v>3966</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>2005</v>
       </c>
@@ -4245,21 +4258,21 @@
         <v>4.8071380000000001</v>
       </c>
       <c r="C27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2498609270527536E-2</v>
       </c>
       <c r="D27" s="8">
         <v>3</v>
       </c>
       <c r="E27" s="11">
-        <f>((D27-D26)/D26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27" s="13">
         <v>4091</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>2006</v>
       </c>
@@ -4267,21 +4280,21 @@
         <v>4.8343090000000002</v>
       </c>
       <c r="C28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6522196783200434E-3</v>
       </c>
       <c r="D28" s="8">
         <v>3</v>
       </c>
       <c r="E28" s="11">
-        <f>((D28-D27)/D27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28" s="13">
         <v>4611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>2007</v>
       </c>
@@ -4289,21 +4302,21 @@
         <v>4.9126459999999996</v>
       </c>
       <c r="C29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6204384121908517E-2</v>
       </c>
       <c r="D29" s="8">
         <v>3</v>
       </c>
       <c r="E29" s="11">
-        <f>((D29-D28)/D28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29" s="13">
         <v>5345</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>2008</v>
       </c>
@@ -4311,21 +4324,21 @@
         <v>4.7831330000000003</v>
       </c>
       <c r="C30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.6363185949079038E-2</v>
       </c>
       <c r="D30" s="8">
         <v>3</v>
       </c>
       <c r="E30" s="11">
-        <f>((D30-D29)/D29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F30" s="13">
         <v>5838</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>2009</v>
       </c>
@@ -4333,21 +4346,21 @@
         <v>4.9897400000000003</v>
       </c>
       <c r="C31" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3194910114353911E-2</v>
       </c>
       <c r="D31" s="8">
         <v>3</v>
       </c>
       <c r="E31" s="11">
-        <f>((D31-D30)/D30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31" s="13">
         <v>5510</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>2010</v>
       </c>
@@ -4355,21 +4368,21 @@
         <v>5.1486390000000002</v>
       </c>
       <c r="C32" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1845146240084631E-2</v>
       </c>
       <c r="D32" s="8">
         <v>3</v>
       </c>
       <c r="E32" s="11">
-        <f>((D32-D31)/D31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="13">
         <v>5664</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>2011</v>
       </c>
@@ -4377,21 +4390,21 @@
         <v>5.4019539999999999</v>
       </c>
       <c r="C33" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9200380916199354E-2</v>
       </c>
       <c r="D33" s="8">
         <v>4</v>
       </c>
       <c r="E33" s="11">
-        <f>((D33-D32)/D32)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F33" s="13">
         <v>5856</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>2012</v>
       </c>
@@ -4399,21 +4412,21 @@
         <v>5.6497840000000004</v>
       </c>
       <c r="C34" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5877843461828896E-2</v>
       </c>
       <c r="D34" s="8">
         <v>4</v>
       </c>
       <c r="E34" s="11">
-        <f>((D34-D33)/D33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="13">
         <v>6397</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>2013</v>
       </c>
@@ -4421,21 +4434,21 @@
         <v>5.729114</v>
       </c>
       <c r="C35" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4041244762631576E-2</v>
       </c>
       <c r="D35" s="8">
         <v>4</v>
       </c>
       <c r="E35" s="11">
-        <f>((D35-D34)/D34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F35" s="13">
         <v>6986</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>2014</v>
       </c>
@@ -4443,21 +4456,21 @@
         <v>6.0490449999999996</v>
       </c>
       <c r="C36" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5843015167790257E-2</v>
       </c>
       <c r="D36" s="8">
         <v>4</v>
       </c>
       <c r="E36" s="11">
-        <f>((D36-D35)/D35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36" s="13">
         <v>7256</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>2015</v>
       </c>
@@ -4465,21 +4478,21 @@
         <v>6.2197959999999997</v>
       </c>
       <c r="C37" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8227761572281261E-2</v>
       </c>
       <c r="D37" s="8">
         <v>5</v>
       </c>
       <c r="E37" s="11">
-        <f>((D37-D36)/D36)</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="F37" s="13">
         <v>7774</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>2016</v>
       </c>
@@ -4487,21 +4500,21 @@
         <v>6.3565440000000004</v>
       </c>
       <c r="C38" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1985930085166902E-2</v>
       </c>
       <c r="D38" s="8">
         <v>5</v>
       </c>
       <c r="E38" s="11">
-        <f>((D38-D37)/D37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="13">
         <v>8580</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>2017</v>
       </c>
@@ -4509,21 +4522,21 @@
         <v>6.7245359999999996</v>
       </c>
       <c r="C39" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7891835563475873E-2</v>
       </c>
       <c r="D39" s="8">
         <v>5</v>
       </c>
       <c r="E39" s="11">
-        <f>((D39-D38)/D38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F39" s="13">
         <v>8213</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>2018</v>
       </c>
@@ -4531,21 +4544,21 @@
         <v>7.0802909999999999</v>
       </c>
       <c r="C40" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2904021928055746E-2</v>
       </c>
       <c r="D40" s="8">
         <v>5</v>
       </c>
       <c r="E40" s="11">
-        <f>((D40-D39)/D39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40" s="13">
         <v>7785</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>2019</v>
       </c>
@@ -4553,21 +4566,21 @@
         <v>7.4543499999999998</v>
       </c>
       <c r="C41" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2831020645902824E-2</v>
       </c>
       <c r="D41" s="8">
         <v>6</v>
       </c>
       <c r="E41" s="11">
-        <f>((D41-D40)/D40)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="F41" s="13">
         <v>8209</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>2020</v>
       </c>
@@ -4575,21 +4588,21 @@
         <v>7.5035280000000002</v>
       </c>
       <c r="C42" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5972217564241537E-3</v>
       </c>
       <c r="D42" s="8">
         <v>6</v>
       </c>
       <c r="E42" s="11">
-        <f>((D42-D41)/D41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F42" s="13">
         <v>9343</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>2021</v>
       </c>
@@ -4597,21 +4610,21 @@
         <v>8.2826020000000007</v>
       </c>
       <c r="C43" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10382769278664655</v>
       </c>
       <c r="D43" s="8">
         <v>6</v>
       </c>
       <c r="E43" s="11">
-        <f>((D43-D42)/D42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F43" s="13">
         <v>7270</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>2022</v>
       </c>
@@ -4619,36 +4632,36 @@
         <v>8.6630090000000006</v>
       </c>
       <c r="C44" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5928441327978804E-2</v>
       </c>
       <c r="D44" s="8">
         <v>7</v>
       </c>
       <c r="E44" s="11">
-        <f>((D44-D43)/D43)</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F44" s="13">
         <v>7553</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>2023</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="21">
         <v>9.0529130000000002</v>
       </c>
       <c r="C45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5007918149455872E-2</v>
       </c>
       <c r="D45" s="8">
         <v>7</v>
       </c>
       <c r="E45" s="11">
-        <f>((D45-D44)/D44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F45" s="13">
@@ -4657,7 +4670,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C45 E1:E45">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4673,17 +4686,17 @@
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="16.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4703,7 +4716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1980</v>
       </c>
@@ -4715,7 +4728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1981</v>
       </c>
@@ -4735,7 +4748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1982</v>
       </c>
@@ -4757,7 +4770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1983</v>
       </c>
@@ -4779,7 +4792,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1984</v>
       </c>
@@ -4801,7 +4814,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1985</v>
       </c>
@@ -4823,7 +4836,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>1986</v>
       </c>
@@ -4845,7 +4858,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>1987</v>
       </c>
@@ -4867,7 +4880,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>1988</v>
       </c>
@@ -4889,7 +4902,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>1989</v>
       </c>
@@ -4911,7 +4924,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>1990</v>
       </c>
@@ -4933,7 +4946,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>1991</v>
       </c>
@@ -4955,7 +4968,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>1992</v>
       </c>
@@ -4977,7 +4990,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>1993</v>
       </c>
@@ -4999,7 +5012,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>1994</v>
       </c>
@@ -5021,7 +5034,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>1995</v>
       </c>
@@ -5043,7 +5056,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>1996</v>
       </c>
@@ -5065,7 +5078,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>1997</v>
       </c>
@@ -5087,7 +5100,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>1998</v>
       </c>
@@ -5109,7 +5122,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>1999</v>
       </c>
@@ -5131,7 +5144,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>2000</v>
       </c>
@@ -5153,7 +5166,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>2001</v>
       </c>
@@ -5175,7 +5188,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>2002</v>
       </c>
@@ -5197,7 +5210,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>2003</v>
       </c>
@@ -5219,7 +5232,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>2004</v>
       </c>
@@ -5241,7 +5254,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>2005</v>
       </c>
@@ -5263,7 +5276,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>2006</v>
       </c>
@@ -5285,7 +5298,7 @@
         <v>4611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>2007</v>
       </c>
@@ -5307,7 +5320,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>2008</v>
       </c>
@@ -5329,7 +5342,7 @@
         <v>5838</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>2009</v>
       </c>
@@ -5351,7 +5364,7 @@
         <v>5510</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>2010</v>
       </c>
@@ -5373,7 +5386,7 @@
         <v>5664</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>2011</v>
       </c>
@@ -5395,7 +5408,7 @@
         <v>5856</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>2012</v>
       </c>
@@ -5417,7 +5430,7 @@
         <v>6397</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>2013</v>
       </c>
@@ -5439,7 +5452,7 @@
         <v>6986</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>2014</v>
       </c>
@@ -5461,7 +5474,7 @@
         <v>7256</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>2015</v>
       </c>
@@ -5483,7 +5496,7 @@
         <v>7774</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>2016</v>
       </c>
@@ -5505,7 +5518,7 @@
         <v>8580</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>2017</v>
       </c>
@@ -5527,7 +5540,7 @@
         <v>8213</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>2018</v>
       </c>
@@ -5549,7 +5562,7 @@
         <v>7785</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>2019</v>
       </c>
@@ -5571,7 +5584,7 @@
         <v>8209</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>2020</v>
       </c>
@@ -5593,7 +5606,7 @@
         <v>9343</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>2021</v>
       </c>
@@ -5615,7 +5628,7 @@
         <v>7270</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>2022</v>
       </c>
@@ -5637,7 +5650,7 @@
         <v>7553</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>2023</v>
       </c>
@@ -5661,7 +5674,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C45 E1:E45">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5673,20 +5686,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5A200F-BF2B-42D3-880C-38DE68698B59}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="38.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5706,7 +5719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1980</v>
       </c>
@@ -5718,7 +5731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1981</v>
       </c>
@@ -5738,7 +5751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1982</v>
       </c>
@@ -5760,7 +5773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1983</v>
       </c>
@@ -5782,7 +5795,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1984</v>
       </c>
@@ -5804,7 +5817,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1985</v>
       </c>
@@ -5826,7 +5839,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1986</v>
       </c>
@@ -5848,7 +5861,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1987</v>
       </c>
@@ -5870,7 +5883,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1988</v>
       </c>
@@ -5892,7 +5905,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>1989</v>
       </c>
@@ -5914,7 +5927,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1990</v>
       </c>
@@ -5936,7 +5949,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1991</v>
       </c>
@@ -5958,7 +5971,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1992</v>
       </c>
@@ -5980,7 +5993,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>1993</v>
       </c>
@@ -6002,7 +6015,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>1994</v>
       </c>
@@ -6024,7 +6037,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1995</v>
       </c>
@@ -6046,7 +6059,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>1996</v>
       </c>
@@ -6068,7 +6081,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>1997</v>
       </c>
@@ -6090,7 +6103,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>1998</v>
       </c>
@@ -6112,7 +6125,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>1999</v>
       </c>
@@ -6134,7 +6147,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2000</v>
       </c>
@@ -6156,7 +6169,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>2001</v>
       </c>
@@ -6178,7 +6191,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>2002</v>
       </c>
@@ -6200,7 +6213,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>2003</v>
       </c>
@@ -6222,7 +6235,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>2004</v>
       </c>
@@ -6244,7 +6257,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>2005</v>
       </c>
@@ -6266,7 +6279,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>2006</v>
       </c>
@@ -6288,7 +6301,7 @@
         <v>4611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>2007</v>
       </c>
@@ -6310,7 +6323,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>2008</v>
       </c>
@@ -6332,7 +6345,7 @@
         <v>5838</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>2009</v>
       </c>
@@ -6354,7 +6367,7 @@
         <v>5510</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>2010</v>
       </c>
@@ -6376,7 +6389,7 @@
         <v>5664</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>2011</v>
       </c>
@@ -6398,7 +6411,7 @@
         <v>5856</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>2012</v>
       </c>
@@ -6420,7 +6433,7 @@
         <v>6397</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>2013</v>
       </c>
@@ -6442,7 +6455,7 @@
         <v>6986</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>2014</v>
       </c>
@@ -6464,7 +6477,7 @@
         <v>7256</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>2015</v>
       </c>
@@ -6486,7 +6499,7 @@
         <v>7774</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>2016</v>
       </c>
@@ -6508,7 +6521,7 @@
         <v>8580</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>2017</v>
       </c>
@@ -6530,7 +6543,7 @@
         <v>8213</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>2018</v>
       </c>
@@ -6552,7 +6565,7 @@
         <v>7785</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>2019</v>
       </c>
@@ -6574,7 +6587,7 @@
         <v>8209</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>2020</v>
       </c>
@@ -6596,7 +6609,7 @@
         <v>9343</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>2021</v>
       </c>
@@ -6618,7 +6631,7 @@
         <v>7270</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>2022</v>
       </c>
@@ -6640,7 +6653,7 @@
         <v>7553</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>2023</v>
       </c>
@@ -6664,7 +6677,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C45 E1:E45">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Fundraising Trends/Lifetime Fundraising and Riding Stats by Year.xlsx
+++ b/Fundraising Trends/Lifetime Fundraising and Riding Stats by Year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyrodriguez/Desktop/PMC Github/Fundraising Trends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6C231E-5F6A-9F4C-BAAA-2B8FC2C5BDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A82D5B-B62B-C04F-9620-1D74334A0473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{78DC97BA-FC94-4645-820C-CCD26561DD59}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{78DC97BA-FC94-4645-820C-CCD26561DD59}"/>
   </bookViews>
   <sheets>
     <sheet name="Fundraising Stats by Year" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -236,7 +236,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1636,7 +1636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E45">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2640,12 +2640,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2655,1019 +2655,1065 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322575E7-DE50-49AC-9C7A-09E489D6EF82}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="32.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="2" max="3" width="39.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="32.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1980</v>
       </c>
       <c r="B2" s="13">
         <v>316.66669999999999</v>
       </c>
-      <c r="C2" s="14" t="e">
-        <f t="shared" ref="C2:C10" si="0">((B2-B1)/B2)</f>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="e">
+        <f t="shared" ref="D2:D10" si="0">((B2-B1)/B2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13">
+      <c r="G2" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1981</v>
       </c>
       <c r="B3" s="13">
         <v>670.27269999999999</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13"/>
+      <c r="D3" s="14">
         <f t="shared" si="0"/>
         <v>0.52755542632125696</v>
       </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13">
+      <c r="G3" s="13">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1982</v>
       </c>
       <c r="B4" s="13">
         <v>738.43499999999995</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13"/>
+      <c r="D4" s="14">
         <f t="shared" si="0"/>
         <v>9.2306431845727746E-2</v>
       </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="13">
+      <c r="G4" s="13">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>1983</v>
       </c>
       <c r="B5" s="13">
         <v>760.55309999999997</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14">
         <f t="shared" si="0"/>
         <v>2.9081598641830568E-2</v>
       </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="13">
+      <c r="G5" s="13">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>1984</v>
       </c>
       <c r="B6" s="13">
         <v>768.65660000000003</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14">
         <f t="shared" si="0"/>
         <v>1.0542419072444123E-2</v>
       </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="13">
+      <c r="G6" s="13">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>1985</v>
       </c>
       <c r="B7" s="13">
         <v>761.67830000000004</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14">
         <f t="shared" si="0"/>
         <v>-9.1617419059988846E-3</v>
       </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>1986</v>
       </c>
       <c r="B8" s="13">
         <v>697.50819999999999</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14">
         <f t="shared" si="0"/>
         <v>-9.1999061803144461E-2</v>
       </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="13">
+      <c r="G8" s="13">
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>1987</v>
       </c>
       <c r="B9" s="13">
         <v>598.13499999999999</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14">
         <f t="shared" si="0"/>
         <v>-0.16613841356884315</v>
       </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="13">
+      <c r="G9" s="13">
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>1988</v>
       </c>
       <c r="B10" s="13">
         <v>775.65769999999998</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14">
         <f t="shared" si="0"/>
         <v>0.22886732124234696</v>
       </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="13">
+      <c r="G10" s="13">
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1989</v>
       </c>
       <c r="B11" s="13">
         <v>2116.5182</v>
       </c>
-      <c r="C11" s="14">
-        <f t="shared" ref="C11:E45" si="1">((B11-B10)/B11)</f>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14">
+        <f>((B11-B10)/B11)</f>
         <v>0.63352183789395244</v>
       </c>
-      <c r="D11" s="13">
+      <c r="E11" s="13">
         <v>884.5</v>
       </c>
-      <c r="E11" s="14">
-        <f t="shared" si="1"/>
+      <c r="F11" s="14">
+        <f t="shared" ref="F11:F45" si="1">((E11-E10)/E11)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="13">
+      <c r="G11" s="13">
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>1990</v>
       </c>
       <c r="B12" s="13">
         <v>3327.4162999999999</v>
       </c>
-      <c r="C12" s="14">
-        <f t="shared" si="1"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14">
+        <f>((B12-B11)/B12)</f>
         <v>0.3639154199010205</v>
       </c>
-      <c r="D12" s="13">
+      <c r="E12" s="13">
         <v>1674</v>
       </c>
-      <c r="E12" s="14">
+      <c r="F12" s="14">
         <f t="shared" si="1"/>
         <v>0.47162485065710874</v>
       </c>
-      <c r="F12" s="13">
+      <c r="G12" s="13">
         <v>1016</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>1991</v>
       </c>
       <c r="B13" s="13">
         <v>4209.5442000000003</v>
       </c>
-      <c r="C13" s="14">
-        <f t="shared" si="1"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14">
+        <f>((B13-B12)/B13)</f>
         <v>0.20955425530393537</v>
       </c>
-      <c r="D13" s="13">
+      <c r="E13" s="13">
         <v>2350</v>
       </c>
-      <c r="E13" s="14">
+      <c r="F13" s="14">
         <f t="shared" si="1"/>
         <v>0.2876595744680851</v>
       </c>
-      <c r="F13" s="13">
+      <c r="G13" s="13">
         <v>1229</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>1992</v>
       </c>
       <c r="B14" s="13">
         <v>5008.2277000000004</v>
       </c>
-      <c r="C14" s="14">
-        <f t="shared" si="1"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14">
+        <f>((B14-B13)/B14)</f>
         <v>0.15947427869543551</v>
       </c>
-      <c r="D14" s="13">
+      <c r="E14" s="13">
         <v>2636</v>
       </c>
-      <c r="E14" s="14">
+      <c r="F14" s="14">
         <f t="shared" si="1"/>
         <v>0.10849772382397573</v>
       </c>
-      <c r="F14" s="13">
+      <c r="G14" s="13">
         <v>1505</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>1993</v>
       </c>
       <c r="B15" s="13">
         <v>6115.9274999999998</v>
       </c>
-      <c r="C15" s="14">
-        <f t="shared" si="1"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14">
+        <f>((B15-B14)/B15)</f>
         <v>0.18111722220382753</v>
       </c>
-      <c r="D15" s="13">
+      <c r="E15" s="13">
         <v>3145.165</v>
       </c>
-      <c r="E15" s="14">
+      <c r="F15" s="14">
         <f t="shared" si="1"/>
         <v>0.16188816802934025</v>
       </c>
-      <c r="F15" s="13">
+      <c r="G15" s="13">
         <v>1426</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>1994</v>
       </c>
       <c r="B16" s="13">
         <v>7397.9831999999997</v>
       </c>
-      <c r="C16" s="14">
-        <f t="shared" si="1"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14">
+        <f>((B16-B15)/B16)</f>
         <v>0.17329800100113771</v>
       </c>
-      <c r="D16" s="13">
+      <c r="E16" s="13">
         <v>3622</v>
       </c>
-      <c r="E16" s="14">
+      <c r="F16" s="14">
         <f t="shared" si="1"/>
         <v>0.131649641082275</v>
       </c>
-      <c r="F16" s="13">
+      <c r="G16" s="13">
         <v>1595</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>1995</v>
       </c>
       <c r="B17" s="13">
         <v>8281.4914000000008</v>
       </c>
-      <c r="C17" s="14">
-        <f t="shared" si="1"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14">
+        <f>((B17-B16)/B17)</f>
         <v>0.10668467276316933</v>
       </c>
-      <c r="D17" s="13">
+      <c r="E17" s="13">
         <v>3975</v>
       </c>
-      <c r="E17" s="14">
+      <c r="F17" s="14">
         <f t="shared" si="1"/>
         <v>8.880503144654088E-2</v>
       </c>
-      <c r="F17" s="13">
+      <c r="G17" s="13">
         <v>1856</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>1996</v>
       </c>
       <c r="B18" s="13">
         <v>9606.7868999999992</v>
       </c>
-      <c r="C18" s="14">
-        <f t="shared" si="1"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14">
+        <f>((B18-B17)/B18)</f>
         <v>0.13795408535605161</v>
       </c>
-      <c r="D18" s="13">
+      <c r="E18" s="13">
         <v>4696.5</v>
       </c>
-      <c r="E18" s="14">
+      <c r="F18" s="14">
         <f t="shared" si="1"/>
         <v>0.15362503992334717</v>
       </c>
-      <c r="F18" s="13">
+      <c r="G18" s="13">
         <v>1974</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>1997</v>
       </c>
       <c r="B19" s="13">
         <v>11129.407499999999</v>
       </c>
-      <c r="C19" s="14">
-        <f t="shared" si="1"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14">
+        <f>((B19-B18)/B19)</f>
         <v>0.13681057145225389</v>
       </c>
-      <c r="D19" s="13">
+      <c r="E19" s="13">
         <v>5461.4</v>
       </c>
-      <c r="E19" s="14">
+      <c r="F19" s="14">
         <f t="shared" si="1"/>
         <v>0.14005566338301528</v>
       </c>
-      <c r="F19" s="13">
+      <c r="G19" s="13">
         <v>1959</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>1998</v>
       </c>
       <c r="B20" s="13">
         <v>12510.302100000001</v>
       </c>
-      <c r="C20" s="14">
-        <f t="shared" si="1"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14">
+        <f>((B20-B19)/B20)</f>
         <v>0.11038059584508365</v>
       </c>
-      <c r="D20" s="13">
+      <c r="E20" s="13">
         <v>5615</v>
       </c>
-      <c r="E20" s="14">
+      <c r="F20" s="14">
         <f t="shared" si="1"/>
         <v>2.7355298308103359E-2</v>
       </c>
-      <c r="F20" s="13">
+      <c r="G20" s="13">
         <v>2275</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>1999</v>
       </c>
       <c r="B21" s="13">
         <v>13573.162700000001</v>
       </c>
-      <c r="C21" s="14">
-        <f t="shared" si="1"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14">
+        <f>((B21-B20)/B21)</f>
         <v>7.8306038429790573E-2</v>
       </c>
-      <c r="D21" s="13">
+      <c r="E21" s="13">
         <v>6440.2</v>
       </c>
-      <c r="E21" s="14">
+      <c r="F21" s="14">
         <f t="shared" si="1"/>
         <v>0.12813266668736994</v>
       </c>
-      <c r="F21" s="13">
+      <c r="G21" s="13">
         <v>2519</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>2000</v>
       </c>
       <c r="B22" s="13">
         <v>16970.1021</v>
       </c>
-      <c r="C22" s="14">
-        <f t="shared" si="1"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14">
+        <f>((B22-B21)/B22)</f>
         <v>0.20017200721497128</v>
       </c>
-      <c r="D22" s="13">
+      <c r="E22" s="13">
         <v>7751</v>
       </c>
-      <c r="E22" s="14">
+      <c r="F22" s="14">
         <f t="shared" si="1"/>
         <v>0.16911366275319317</v>
       </c>
-      <c r="F22" s="13">
+      <c r="G22" s="13">
         <v>2902</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>2001</v>
       </c>
       <c r="B23" s="13">
         <v>19995.4948</v>
       </c>
-      <c r="C23" s="14">
-        <f t="shared" si="1"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14">
+        <f>((B23-B22)/B23)</f>
         <v>0.15130371767544359</v>
       </c>
-      <c r="D23" s="13">
+      <c r="E23" s="13">
         <v>9294</v>
       </c>
-      <c r="E23" s="14">
+      <c r="F23" s="14">
         <f t="shared" si="1"/>
         <v>0.16602108887454273</v>
       </c>
-      <c r="F23" s="13">
+      <c r="G23" s="13">
         <v>3114</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>2002</v>
       </c>
       <c r="B24" s="13">
         <v>21154.992300000002</v>
       </c>
-      <c r="C24" s="14">
-        <f t="shared" si="1"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14">
+        <f>((B24-B23)/B24)</f>
         <v>5.4809639424921994E-2</v>
       </c>
-      <c r="D24" s="13">
+      <c r="E24" s="13">
         <v>9822</v>
       </c>
-      <c r="E24" s="14">
+      <c r="F24" s="14">
         <f t="shared" si="1"/>
         <v>5.3756872327428221E-2</v>
       </c>
-      <c r="F24" s="13">
+      <c r="G24" s="13">
         <v>3485</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>2003</v>
       </c>
       <c r="B25" s="13">
         <v>23097.681199999999</v>
       </c>
-      <c r="C25" s="14">
-        <f t="shared" si="1"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14">
+        <f>((B25-B24)/B25)</f>
         <v>8.4107529373987439E-2</v>
       </c>
-      <c r="D25" s="13">
+      <c r="E25" s="13">
         <v>10994.83</v>
       </c>
-      <c r="E25" s="14">
+      <c r="F25" s="14">
         <f t="shared" si="1"/>
         <v>0.10667104448181554</v>
       </c>
-      <c r="F25" s="13">
+      <c r="G25" s="13">
         <v>3690</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>2004</v>
       </c>
       <c r="B26" s="13">
         <v>25512.866300000002</v>
       </c>
-      <c r="C26" s="14">
-        <f t="shared" si="1"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14">
+        <f>((B26-B25)/B26)</f>
         <v>9.4665376739735518E-2</v>
       </c>
-      <c r="D26" s="13">
+      <c r="E26" s="13">
         <v>12144</v>
       </c>
-      <c r="E26" s="14">
+      <c r="F26" s="14">
         <f t="shared" si="1"/>
         <v>9.46286231884058E-2</v>
       </c>
-      <c r="F26" s="13">
+      <c r="G26" s="13">
         <v>3966</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>2005</v>
       </c>
       <c r="B27" s="13">
         <v>28826.955999999998</v>
       </c>
-      <c r="C27" s="14">
-        <f t="shared" si="1"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14">
+        <f>((B27-B26)/B27)</f>
         <v>0.11496495502334679</v>
       </c>
-      <c r="D27" s="13">
+      <c r="E27" s="13">
         <v>14083.85</v>
       </c>
-      <c r="E27" s="14">
+      <c r="F27" s="14">
         <f t="shared" si="1"/>
         <v>0.1377357753739212</v>
       </c>
-      <c r="F27" s="13">
+      <c r="G27" s="13">
         <v>4091</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>2006</v>
       </c>
       <c r="B28" s="13">
         <v>30308.926599999999</v>
       </c>
-      <c r="C28" s="14">
-        <f t="shared" si="1"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14">
+        <f>((B28-B27)/B28)</f>
         <v>4.8895515818102267E-2</v>
       </c>
-      <c r="D28" s="13">
+      <c r="E28" s="13">
         <v>15069</v>
       </c>
-      <c r="E28" s="14">
+      <c r="F28" s="14">
         <f t="shared" si="1"/>
         <v>6.5375937354834407E-2</v>
       </c>
-      <c r="F28" s="13">
+      <c r="G28" s="13">
         <v>4611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>2007</v>
       </c>
       <c r="B29" s="13">
         <v>31854.631700000002</v>
       </c>
-      <c r="C29" s="14">
-        <f t="shared" si="1"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14">
+        <f>((B29-B28)/B29)</f>
         <v>4.8523715940498625E-2</v>
       </c>
-      <c r="D29" s="13">
+      <c r="E29" s="13">
         <v>16273</v>
       </c>
-      <c r="E29" s="14">
+      <c r="F29" s="14">
         <f t="shared" si="1"/>
         <v>7.3987586800221231E-2</v>
       </c>
-      <c r="F29" s="13">
+      <c r="G29" s="13">
         <v>5345</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>2008</v>
       </c>
       <c r="B30" s="13">
         <v>34146.513299999999</v>
       </c>
-      <c r="C30" s="14">
-        <f t="shared" si="1"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14">
+        <f>((B30-B29)/B30)</f>
         <v>6.7119051947245142E-2</v>
       </c>
-      <c r="D30" s="13">
+      <c r="E30" s="13">
         <v>17310</v>
       </c>
-      <c r="E30" s="14">
+      <c r="F30" s="14">
         <f t="shared" si="1"/>
         <v>5.9907567879838246E-2</v>
       </c>
-      <c r="F30" s="13">
+      <c r="G30" s="13">
         <v>5838</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>2009</v>
       </c>
       <c r="B31" s="13">
         <v>37290.482900000003</v>
       </c>
-      <c r="C31" s="14">
-        <f t="shared" si="1"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14">
+        <f>((B31-B30)/B31)</f>
         <v>8.4310240991810906E-2</v>
       </c>
-      <c r="D31" s="13">
+      <c r="E31" s="13">
         <v>18232.88</v>
       </c>
-      <c r="E31" s="14">
+      <c r="F31" s="14">
         <f t="shared" si="1"/>
         <v>5.0616249325394616E-2</v>
       </c>
-      <c r="F31" s="13">
+      <c r="G31" s="13">
         <v>5510</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>2010</v>
       </c>
       <c r="B32" s="13">
         <v>39001.607900000003</v>
       </c>
-      <c r="C32" s="14">
-        <f t="shared" si="1"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14">
+        <f>((B32-B31)/B32)</f>
         <v>4.3873191187074105E-2</v>
       </c>
-      <c r="D32" s="13">
+      <c r="E32" s="13">
         <v>18914.75</v>
       </c>
-      <c r="E32" s="14">
+      <c r="F32" s="14">
         <f t="shared" si="1"/>
         <v>3.6049643796507963E-2</v>
       </c>
-      <c r="F32" s="13">
+      <c r="G32" s="13">
         <v>5664</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>2011</v>
       </c>
       <c r="B33" s="13">
         <v>40930.017899999999</v>
       </c>
-      <c r="C33" s="14">
-        <f t="shared" si="1"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14">
+        <f>((B33-B32)/B33)</f>
         <v>4.7114809593083423E-2</v>
       </c>
-      <c r="D33" s="13">
+      <c r="E33" s="13">
         <v>20276.5</v>
       </c>
-      <c r="E33" s="14">
+      <c r="F33" s="14">
         <f t="shared" si="1"/>
         <v>6.7159026459201535E-2</v>
       </c>
-      <c r="F33" s="13">
+      <c r="G33" s="13">
         <v>5856</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>2012</v>
       </c>
       <c r="B34" s="13">
         <v>42000.799599999998</v>
       </c>
-      <c r="C34" s="14">
-        <f t="shared" si="1"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14">
+        <f>((B34-B33)/B34)</f>
         <v>2.5494317017716959E-2</v>
       </c>
-      <c r="D34" s="13">
+      <c r="E34" s="13">
         <v>20552.5</v>
       </c>
-      <c r="E34" s="14">
+      <c r="F34" s="14">
         <f t="shared" si="1"/>
         <v>1.3429023233183311E-2</v>
       </c>
-      <c r="F34" s="13">
+      <c r="G34" s="13">
         <v>6397</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>2013</v>
       </c>
       <c r="B35" s="13">
         <v>43290.430200000003</v>
       </c>
-      <c r="C35" s="14">
-        <f t="shared" si="1"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14">
+        <f>((B35-B34)/B35)</f>
         <v>2.9790200606507347E-2</v>
       </c>
-      <c r="D35" s="13">
+      <c r="E35" s="13">
         <v>21185</v>
       </c>
-      <c r="E35" s="14">
+      <c r="F35" s="14">
         <f t="shared" si="1"/>
         <v>2.9856030210054285E-2</v>
       </c>
-      <c r="F35" s="13">
+      <c r="G35" s="13">
         <v>6986</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>2014</v>
       </c>
       <c r="B36" s="13">
         <v>45560.784899999999</v>
       </c>
-      <c r="C36" s="14">
-        <f t="shared" si="1"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14">
+        <f>((B36-B35)/B36)</f>
         <v>4.9831334227079929E-2</v>
       </c>
-      <c r="D36" s="13">
+      <c r="E36" s="13">
         <v>21983.3</v>
       </c>
-      <c r="E36" s="14">
+      <c r="F36" s="14">
         <f t="shared" si="1"/>
         <v>3.631392920990021E-2</v>
       </c>
-      <c r="F36" s="13">
+      <c r="G36" s="13">
         <v>7256</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>2015</v>
       </c>
       <c r="B37" s="13">
         <v>47690.802300000003</v>
       </c>
-      <c r="C37" s="14">
-        <f t="shared" si="1"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14">
+        <f>((B37-B36)/B37)</f>
         <v>4.4663064936527691E-2</v>
       </c>
-      <c r="D37" s="13">
+      <c r="E37" s="13">
         <v>22788.62</v>
       </c>
-      <c r="E37" s="14">
+      <c r="F37" s="14">
         <f t="shared" si="1"/>
         <v>3.5338690978216312E-2</v>
       </c>
-      <c r="F37" s="13">
+      <c r="G37" s="13">
         <v>7774</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>2016</v>
       </c>
       <c r="B38" s="13">
         <v>49146.113700000002</v>
       </c>
-      <c r="C38" s="14">
-        <f t="shared" si="1"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14">
+        <f>((B38-B37)/B38)</f>
         <v>2.9611932469036685E-2</v>
       </c>
-      <c r="D38" s="13">
+      <c r="E38" s="13">
         <v>23396</v>
       </c>
-      <c r="E38" s="14">
+      <c r="F38" s="14">
         <f t="shared" si="1"/>
         <v>2.5960848008206576E-2</v>
       </c>
-      <c r="F38" s="13">
+      <c r="G38" s="13">
         <v>8580</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>2017</v>
       </c>
       <c r="B39" s="13">
         <v>53085.550900000002</v>
       </c>
-      <c r="C39" s="14">
-        <f t="shared" si="1"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14">
+        <f>((B39-B38)/B39)</f>
         <v>7.4209217634774519E-2</v>
       </c>
-      <c r="D39" s="13">
+      <c r="E39" s="13">
         <v>24635.5</v>
       </c>
-      <c r="E39" s="14">
+      <c r="F39" s="14">
         <f t="shared" si="1"/>
         <v>5.031357187798096E-2</v>
       </c>
-      <c r="F39" s="13">
+      <c r="G39" s="13">
         <v>8213</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>2018</v>
       </c>
       <c r="B40" s="13">
         <v>57868.326800000003</v>
       </c>
-      <c r="C40" s="14">
-        <f t="shared" si="1"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14">
+        <f>((B40-B39)/B40)</f>
         <v>8.2649286137645855E-2</v>
       </c>
-      <c r="D40" s="13">
+      <c r="E40" s="13">
         <v>26748.86</v>
       </c>
-      <c r="E40" s="14">
+      <c r="F40" s="14">
         <f t="shared" si="1"/>
         <v>7.900747919724431E-2</v>
       </c>
-      <c r="F40" s="13">
+      <c r="G40" s="13">
         <v>7785</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>2019</v>
       </c>
       <c r="B41" s="13">
         <v>62272.5789</v>
       </c>
-      <c r="C41" s="14">
-        <f t="shared" si="1"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14">
+        <f>((B41-B40)/B41)</f>
         <v>7.0725384716642886E-2</v>
       </c>
-      <c r="D41" s="13">
+      <c r="E41" s="13">
         <v>28404.93</v>
       </c>
-      <c r="E41" s="14">
+      <c r="F41" s="14">
         <f t="shared" si="1"/>
         <v>5.8302203173885646E-2</v>
       </c>
-      <c r="F41" s="13">
+      <c r="G41" s="13">
         <v>8209</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>2020</v>
       </c>
       <c r="B42" s="13">
         <v>65514.0962</v>
       </c>
-      <c r="C42" s="14">
-        <f t="shared" si="1"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14">
+        <f>((B42-B41)/B42)</f>
         <v>4.9478165585988797E-2</v>
       </c>
-      <c r="D42" s="13">
+      <c r="E42" s="13">
         <v>27878.080000000002</v>
       </c>
-      <c r="E42" s="14">
+      <c r="F42" s="14">
         <f t="shared" si="1"/>
         <v>-1.8898360288800323E-2</v>
       </c>
-      <c r="F42" s="13">
+      <c r="G42" s="13">
         <v>9343</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>2021</v>
       </c>
       <c r="B43" s="13">
         <v>75020.34</v>
       </c>
-      <c r="C43" s="14">
-        <f t="shared" si="1"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14">
+        <f>((B43-B42)/B43)</f>
         <v>0.12671555207561039</v>
       </c>
-      <c r="D43" s="13">
+      <c r="E43" s="13">
         <v>32974.839999999997</v>
       </c>
-      <c r="E43" s="14">
+      <c r="F43" s="14">
         <f t="shared" si="1"/>
         <v>0.15456511691944511</v>
       </c>
-      <c r="F43" s="13">
+      <c r="G43" s="13">
         <v>7270</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>2022</v>
       </c>
       <c r="B44" s="13">
         <v>84607.571599999996</v>
       </c>
-      <c r="C44" s="14">
-        <f t="shared" si="1"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14">
+        <f>((B44-B43)/B44)</f>
         <v>0.11331410911219203</v>
       </c>
-      <c r="D44" s="13">
+      <c r="E44" s="13">
         <v>39015</v>
       </c>
-      <c r="E44" s="14">
+      <c r="F44" s="14">
         <f t="shared" si="1"/>
         <v>0.15481635268486488</v>
       </c>
-      <c r="F44" s="13">
+      <c r="G44" s="13">
         <v>7553</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>2023</v>
       </c>
       <c r="B45" s="13">
         <v>92707.711200000005</v>
       </c>
-      <c r="C45" s="14">
-        <f t="shared" si="1"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14">
+        <f>((B45-B44)/B45)</f>
         <v>8.7372878643562163E-2</v>
       </c>
-      <c r="D45" s="13">
+      <c r="E45" s="13">
         <v>46831.9</v>
       </c>
-      <c r="E45" s="14">
+      <c r="F45" s="14">
         <f t="shared" si="1"/>
         <v>0.16691400519731212</v>
       </c>
-      <c r="F45" s="13">
+      <c r="G45" s="13">
         <v>7637</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
-    </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F49"/>
-    </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G50"/>
+      <c r="F46"/>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H50"/>
       <c r="I50"/>
+      <c r="J50"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E45 C1:C45">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="D1:D45 F1:F45">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4670,7 +4716,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C45 E1:E45">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5674,7 +5720,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C45 E1:E45">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6677,7 +6723,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C45 E1:E45">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
